--- a/src/test/excel-out/ex.xlsx
+++ b/src/test/excel-out/ex.xlsx
@@ -483,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -498,6 +498,7 @@
     <col min="7" max="7" width="10.0" customWidth="true"/>
     <col min="8" max="8" width="10.0" customWidth="true"/>
     <col min="9" max="9" width="10.0" customWidth="true"/>
+    <col min="10" max="10" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="25.0">
@@ -538,10 +539,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>emails</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>home</t>
         </is>
@@ -560,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45046.07077118056</v>
+        <v>45047.02141758102</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="inlineStr">
@@ -570,15 +576,20 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>FEMALE</t>
+          <t>女</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>CHINESE</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
           <t>["100-e@ws.com","100-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customHeight="true" ht="20.0">
       <c r="A3" s="2" t="inlineStr">
@@ -593,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>45046.070771273146</v>
+        <v>45047.02142024306</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="inlineStr">
@@ -603,15 +614,20 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>MALE</t>
+          <t>男</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
           <t>["101-e@ws.com","101-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customHeight="true" ht="20.0">
       <c r="A4" s="2" t="inlineStr">
@@ -626,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>45046.070771273146</v>
+        <v>45047.02142025463</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="inlineStr">
@@ -636,15 +652,20 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>FEMALE</t>
+          <t>女</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>CHINESE</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>["102-e@ws.com","102-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customHeight="true" ht="20.0">
       <c r="A5" s="2" t="inlineStr">
@@ -659,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>45046.070771273146</v>
+        <v>45047.02142025463</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="inlineStr">
@@ -669,15 +690,20 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>MALE</t>
+          <t>男</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>["103-e@ws.com","103-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customHeight="true" ht="20.0">
       <c r="A6" s="2" t="inlineStr">
@@ -692,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>45046.070771273146</v>
+        <v>45047.02142025463</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="inlineStr">
@@ -702,15 +728,20 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>FEMALE</t>
+          <t>女</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>CHINESE</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>["104-e@ws.com","104-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customHeight="true" ht="20.0">
       <c r="A7" s="2" t="inlineStr">
@@ -725,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>45046.070771273146</v>
+        <v>45047.0214202662</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="inlineStr">
@@ -735,15 +766,20 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>MALE</t>
+          <t>男</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>["105-e@ws.com","105-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" customHeight="true" ht="20.0">
       <c r="A8" s="2" t="inlineStr">
@@ -758,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>45046.07077128472</v>
+        <v>45047.0214202662</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="inlineStr">
@@ -768,15 +804,20 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>FEMALE</t>
+          <t>女</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>CHINESE</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>["106-e@ws.com","106-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" customHeight="true" ht="20.0">
       <c r="A9" s="2" t="inlineStr">
@@ -791,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>45046.07077128472</v>
+        <v>45047.0214202662</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="inlineStr">
@@ -801,15 +842,20 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>MALE</t>
+          <t>男</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>["107-e@ws.com","107-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" customHeight="true" ht="20.0">
       <c r="A10" s="2" t="inlineStr">
@@ -824,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>45046.07077128472</v>
+        <v>45047.0214202662</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="inlineStr">
@@ -834,15 +880,20 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>FEMALE</t>
+          <t>女</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>CHINESE</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>["108-e@ws.com","108-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" customHeight="true" ht="20.0">
       <c r="A11" s="2" t="inlineStr">
@@ -857,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>45046.07077128472</v>
+        <v>45047.02142027778</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="inlineStr">
@@ -867,15 +918,20 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>MALE</t>
+          <t>男</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>["109-e@ws.com","109-x@ws.com"]</t>
         </is>
       </c>
-      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
